--- a/Include/TestData/TestData.xlsx
+++ b/Include/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FB8436-0630-43DA-8362-911AD37C2E79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0C022-DB07-427D-9E14-CC4DBB05E0FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>

--- a/Include/TestData/TestData.xlsx
+++ b/Include/TestData/TestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0C022-DB07-427D-9E14-CC4DBB05E0FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAAF48D-0B5C-4C96-8548-0F3CD12BBCA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>City_To_From</t>
   </si>
@@ -56,6 +57,69 @@
   </si>
   <si>
     <t>Dummy Address</t>
+  </si>
+  <si>
+    <t>First_name</t>
+  </si>
+  <si>
+    <t>Last_name</t>
+  </si>
+  <si>
+    <t>Zip_postal_code</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Address_1</t>
+  </si>
+  <si>
+    <t>Address_2</t>
+  </si>
+  <si>
+    <t>Phone_number</t>
+  </si>
+  <si>
+    <t>Fax_number</t>
+  </si>
+  <si>
+    <t>Cardholder_name</t>
+  </si>
+  <si>
+    <t>Card_number</t>
+  </si>
+  <si>
+    <t>Card_code</t>
+  </si>
+  <si>
+    <t>katalon</t>
+  </si>
+  <si>
+    <t>Electronica</t>
+  </si>
+  <si>
+    <t>Bombay</t>
+  </si>
+  <si>
+    <t>RockStar Road RockStar Soc</t>
+  </si>
+  <si>
+    <t>Flat no 1001</t>
+  </si>
+  <si>
+    <t>+44 161 999 8888</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>378282246310005</t>
   </si>
 </sst>
 </file>
@@ -100,9 +164,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,4 +524,117 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51767782-D3C3-4BFB-B7BA-B6840E2BE5F1}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3">
+        <v>411037</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3">
+        <v>411033</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9922445566</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Include/TestData/TestData.xlsx
+++ b/Include/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAAF48D-0B5C-4C96-8548-0F3CD12BBCA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1DF2E-5E9D-4B64-8C04-9D4A393E327B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>City_To_From</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>378282246310005</t>
+  </si>
+  <si>
+    <t>Zip_postal_code_1</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +546,7 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
@@ -574,7 +577,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>19</v>

--- a/Include/TestData/TestData.xlsx
+++ b/Include/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1DF2E-5E9D-4B64-8C04-9D4A393E327B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F96ABF-FC7A-47B0-86EB-046C562ABC39}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
